--- a/biology/Botanique/Narcissus_tazetta/Narcissus_tazetta.xlsx
+++ b/biology/Botanique/Narcissus_tazetta/Narcissus_tazetta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Narcisse-à-bouquet
 Narcissus tazetta, le narcisse à bouquet, est une espèce de plantes monocotylédones de la famille des Amaryllidaceae, sous-famille des Amaryllidoideae, originaire d'Eurasie. C'est une plante herbacée, vivace grâce à son bulbe.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Narcissus tazetta est une plante herbacée bulbeuse vivace, glabre, à tige robuste, haute de 20 à 65 cm, comprimée, à 2 bords et sans feuilles. 
 Le bulbe, ovoïde à subglobuleux, à tuniques externes membraneuses, de couleur brun clair à brun foncé, mesure jusqu'à 7 cm de long sur 3 à 5 cm de large. Il se prolonge par une gaine de 1 à 9,5 cm de long. 
@@ -520,10 +534,8 @@
 L'inflorescence est un racème ou pseudo-ombelle, de 25–35 cm de long, à spathe papyracée, brun pâle, de 4 à 6 cm de long, comptant de 2 à 15 fleurs.
 Les fleurs, fortement parfumées, présentent un périanthe de 2 à 4 cm de large formé de tépales soudés. Le tube du périanthe de 1,5 à 2 cm de long, se rétrécit progressivement jusqu'à la base. Les tépales présentent des lobes distincts, étalés à réfléchis, de couleur blanc-crème, linéaires-ovales à oblancéolés, de 8 à 22 mm de long sur 4 à 14 mm de large, à l'apex aigu.
 La couronne en forme de coupe, jaune ou orange, a 3 à 6 mm de haut et 6 à 10 mm de diamètre, à l'apex crénelé à hérissé. 
-Les étamines, au nombre de six, sont inégales et présentent un filament droit et blanchâtre, et une anthère jaune, les 3 étamines plus courtes sont incluses dans le tube du périanthe, les 3 plus longues et le style sont exserts (saillants) dans l'embouchure de la couronne[2],[3].
-Le fruit est une capsule oblongue-ovoïde de 12 mm de long sur 6 à 7 mm de large. Les graines ovoïdes, noires, brillantes, mesurent 2 à 2,2 mm de long sur 1,4 à 1,5 mm de large[4].
-Cytologie
-Narcissus tazetta est à la base une espèce dioïque à 10 chromosomes (2n = 2x = 10) mais présente un polymorphisme cytologique[5] Il existe en effet des variétés tétraploïdes à 20 chromosomes (2n = 4x = 20) ou polyploïdes à 21, 22, 30, 31 chromosomes[6],[7].
+Les étamines, au nombre de six, sont inégales et présentent un filament droit et blanchâtre, et une anthère jaune, les 3 étamines plus courtes sont incluses dans le tube du périanthe, les 3 plus longues et le style sont exserts (saillants) dans l'embouchure de la couronne,.
+Le fruit est une capsule oblongue-ovoïde de 12 mm de long sur 6 à 7 mm de large. Les graines ovoïdes, noires, brillantes, mesurent 2 à 2,2 mm de long sur 1,4 à 1,5 mm de large.
 </t>
         </is>
       </c>
@@ -549,14 +561,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'aire de répartition originelle de Narcissus tazetta comprend l'ensemble des pays riverains de la mer Méditerranée, en Europe méridionale (Albanie,  Espagne, y compris les îles Canaries, France, Grèce, Chypre, Italie, ex-Yougoslavie), en Afrique du Nord (Maroc, Algérie, Tunisie, Libye, Égypte et au Moyen-Orient (Liban-Syrie, Israël, Irak, Turquie) ainsi qu'en Asie centrale (Iran, Afghanistan, Ouzbékistan, Turkménistan) et en Extrême-Orient (Sud-Est de la Chine, Japon)[8].
-L'espèce a été introduite en Amérique du Nord (États-Unis, Mexique, Bermudes), en Australasie (Australie, Nouvelle-Zélande, îles Norfolk), et dans divers pays d'Eurasie (Portugal, Transcaucasie, Tadjikistan, Himalaya occidental, Corée)[8].
-En région méditerranéenne, cette plante se rencontre au bord des champs, dans les prairies et dans les endroits incultes, de préférence dans les milieux frais et humides, à des altitudes relativement basses[9], mais peut s'élever en montagne jusqu'à 1200 mètres d'altitude[10].
+          <t>Cytologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Narcissus tazetta est à la base une espèce dioïque à 10 chromosomes (2n = 2x = 10) mais présente un polymorphisme cytologique Il existe en effet des variétés tétraploïdes à 20 chromosomes (2n = 4x = 20) ou polyploïdes à 21, 22, 30, 31 chromosomes,.
 </t>
         </is>
       </c>
@@ -582,20 +598,161 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition originelle de Narcissus tazetta comprend l'ensemble des pays riverains de la mer Méditerranée, en Europe méridionale (Albanie,  Espagne, y compris les îles Canaries, France, Grèce, Chypre, Italie, ex-Yougoslavie), en Afrique du Nord (Maroc, Algérie, Tunisie, Libye, Égypte et au Moyen-Orient (Liban-Syrie, Israël, Irak, Turquie) ainsi qu'en Asie centrale (Iran, Afghanistan, Ouzbékistan, Turkménistan) et en Extrême-Orient (Sud-Est de la Chine, Japon).
+L'espèce a été introduite en Amérique du Nord (États-Unis, Mexique, Bermudes), en Australasie (Australie, Nouvelle-Zélande, îles Norfolk), et dans divers pays d'Eurasie (Portugal, Transcaucasie, Tadjikistan, Himalaya occidental, Corée).
+En région méditerranéenne, cette plante se rencontre au bord des champs, dans les prairies et dans les endroits incultes, de préférence dans les milieux frais et humides, à des altitudes relativement basses, mais peut s'élever en montagne jusqu'à 1200 mètres d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Narcissus_tazetta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narcissus_tazetta</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Narcissus tazetta a été décrite par le botaniste suédois Linné et publié en 1753 dans son Species plantarum 1, 290[11].
-Étymologie
-Le nom générique, « Narcisse »,  fait référence au jeune Narcisse de  la mythologie grecque, Νάρκισσος ( Narkissos ), fils du dieu fleuve Céphise et de la nymphe Liriope.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Narcissus tazetta a été décrite par le botaniste suédois Linné et publié en 1753 dans son Species plantarum 1, 290.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Narcissus_tazetta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narcissus_tazetta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Narcisse »,  fait référence au jeune Narcisse de  la mythologie grecque, Νάρκισσος ( Narkissos ), fils du dieu fleuve Céphise et de la nymphe Liriope.
 Le nom dérive du mot grec, νάρκη (nárkê), « torpeur, engourdissement », et fait référence à l'odeur pénétrante et enivrante des fleurs de certaines espèces (certains soutiennent que le mot dérive du mot persan  'نرگس'   qui se prononce Nargis, ce qui indique que cette plante est enivrante).
-L'épithète spécifique, « tazetta », est le nom italien (toscan) de la plante, tazzetta signifiant « petite tasse »[12].
-Noms vernaculaires
-Narcisse tazette[9], narcisse-à-bouquet[13], narcisse à bouquet jaune[13], narcisse de Constantinople[9].
-Synonymes
-Selon The Plant List            (2 juin 2021)[1] :
+L'épithète spécifique, « tazetta », est le nom italien (toscan) de la plante, tazzetta signifiant « petite tasse ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Narcissus_tazetta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narcissus_tazetta</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Narcisse tazette, narcisse-à-bouquet, narcisse à bouquet jaune, narcisse de Constantinople.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Narcissus_tazetta</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narcissus_tazetta</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (2 juin 2021) :
 Hermione ambigena Salisb.
 Hermione biancae Tod. ex Reut.
 Hermione callichroa Jord. &amp; Fourr.
@@ -635,8 +792,43 @@
 Queltia orientalis (L.) Herb.
 Schisanthes orientalis (L.) Haw.
 Tityrus primulaceus Salisb.
-Liste des sous-espèces
-Selon World Checklist of Selected Plant Families (WCSP)  (2 juin 2021)[14] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Narcissus_tazetta</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narcissus_tazetta</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (2 juin 2021) :
 Narcissus tazetta subsp. aureus (Jord. &amp; Fourr.) Baker (1888)
 Narcissus tazetta subsp. canariensis (Burb.) Baker (1888)
 Narcissus tazetta subsp. chinensis (M.Roem.) Masam. &amp; Yanagita (1941)
